--- a/ADCVD_API_PETITION/input_data/datapool/adcvd_datapool.xlsx
+++ b/ADCVD_API_PETITION/input_data/datapool/adcvd_datapool.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD8913-AAD9-406A-9CC5-EE3FB1BD4351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A4B9F-0748-4626-BF76-72603EEE3166}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="7920" tabRatio="472" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="Invetigation" sheetId="6" r:id="rId3"/>
     <sheet name="Order" sheetId="9" r:id="rId4"/>
     <sheet name="Segments" sheetId="4" r:id="rId5"/>
-    <sheet name="Tolling Dates" sheetId="10" r:id="rId6"/>
-    <sheet name="dropdowns" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Litigations" sheetId="11" r:id="rId6"/>
+    <sheet name="Tolling Dates" sheetId="10" r:id="rId7"/>
+    <sheet name="dropdowns" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
@@ -22,10 +23,12 @@
     <definedName name="FiledSelf">dropdowns!$C$1:$C$2</definedName>
     <definedName name="InvType">dropdowns!$D$1:$D$2</definedName>
     <definedName name="rec_type" localSheetId="2">#REF!</definedName>
+    <definedName name="rec_type" localSheetId="5">#REF!</definedName>
     <definedName name="rec_type">#REF!</definedName>
     <definedName name="segType">dropdowns!$F$1:$F$7</definedName>
     <definedName name="tFalse">dropdowns!$G$1:$G$2</definedName>
     <definedName name="Yes_No" localSheetId="2">#REF!</definedName>
+    <definedName name="Yes_No" localSheetId="5">#REF!</definedName>
     <definedName name="Yes_No">#REF!</definedName>
     <definedName name="YesOrNo">dropdowns!$A$1:$A$2</definedName>
   </definedNames>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="119">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -82,9 +85,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Calculated_Initiation_Signature</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
@@ -247,42 +247,12 @@
     <t>tFalse</t>
   </si>
   <si>
-    <t>Request_Filed_Date</t>
-  </si>
-  <si>
-    <t>Preliminary_Determination</t>
-  </si>
-  <si>
-    <t>Application_Accepted_Date</t>
-  </si>
-  <si>
-    <t>11/29/2018</t>
-  </si>
-  <si>
     <t>K (1)</t>
   </si>
   <si>
     <t>Formal</t>
   </si>
   <si>
-    <t>Decision_On_How_To_Proceed</t>
-  </si>
-  <si>
-    <t>Type_Of_Scope_Ruling</t>
-  </si>
-  <si>
-    <t>Actual_Date_Of_Decision_How_To_Proceed</t>
-  </si>
-  <si>
-    <t>12/4/2018</t>
-  </si>
-  <si>
-    <t>FR_Published_Date</t>
-  </si>
-  <si>
-    <t>1/5/2019</t>
-  </si>
-  <si>
     <t>This is just a Test</t>
   </si>
   <si>
@@ -310,33 +280,6 @@
     <t>Starting_Date</t>
   </si>
   <si>
-    <t>10/1/2013</t>
-  </si>
-  <si>
-    <t>1/22/2016</t>
-  </si>
-  <si>
-    <t>1/20/2018</t>
-  </si>
-  <si>
-    <t>2/13/2014</t>
-  </si>
-  <si>
-    <t>12/22/2018</t>
-  </si>
-  <si>
-    <t>10/16/2013</t>
-  </si>
-  <si>
-    <t>1/27/2016</t>
-  </si>
-  <si>
-    <t>1/22/2018</t>
-  </si>
-  <si>
-    <t>1/30/2019</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -373,10 +316,94 @@
     <t>Query</t>
   </si>
   <si>
-    <t>SELECT+Name,+Petition_Outcome__c,+Initiation_Extension_of_days__c,+Petition_Filed__c,+Initiation_Issues_Due_to_DAS__c,+Initiation_Concurrence_Due_to_DAS__c,+Calculated_Initiation_Signature__c,+Next_Office_Deadline__c,+Next_Major_Deadline__c,+Next_Due_to_DAS_Deadline__c,+Next_Announcement_Date__c+FROM+Petition__c+WHERE+Name='Petition_id'</t>
-  </si>
-  <si>
     <t>Final_Date_of_Anniversary_Month__c</t>
+  </si>
+  <si>
+    <t>Request_Filed__c</t>
+  </si>
+  <si>
+    <t>Application_Accepted__c</t>
+  </si>
+  <si>
+    <t>Preliminary_Determination__c</t>
+  </si>
+  <si>
+    <t>Calculated_Initiation_Signature__c</t>
+  </si>
+  <si>
+    <t>Actual_Date_of_Decision_on_HoP__c</t>
+  </si>
+  <si>
+    <t>Decision_on_How_to_Proceed__c</t>
+  </si>
+  <si>
+    <t>Type_of_Scope_Ruling__c</t>
+  </si>
+  <si>
+    <t>TC_TAG_012</t>
+  </si>
+  <si>
+    <t>TC_TAG_013</t>
+  </si>
+  <si>
+    <t>create international litigation</t>
+  </si>
+  <si>
+    <t>create Remand</t>
+  </si>
+  <si>
+    <t>Create_International_Litigation</t>
+  </si>
+  <si>
+    <t>Create_Remand</t>
+  </si>
+  <si>
+    <t>Expected_Final_Signature_Before_Ext__c</t>
+  </si>
+  <si>
+    <t>select+name,Petition_Filed__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Actual_Initiation_Signature__c,Petition_Outcome__c,Actual_Initiation_Concurrence_to_DAS__c,Actual_Initiation_Issues_to_DAS__c,Next_Major_Deadline__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Issues_Due_to_DAS__c,Next_Due_to_DAS_Deadline__c,Next_Office_Deadline__c,Initiation_Announcement_Date__c,Next_Announcement_Date__c+from+Petition__c+where+id+=+'petitionId'</t>
+  </si>
+  <si>
+    <t>2013-01-10</t>
+  </si>
+  <si>
+    <t>2013-10-16</t>
+  </si>
+  <si>
+    <t>2014-02-13</t>
+  </si>
+  <si>
+    <t>2016-01-22</t>
+  </si>
+  <si>
+    <t>2016-01-27</t>
+  </si>
+  <si>
+    <t>2018-01-20</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>2018-12-22</t>
+  </si>
+  <si>
+    <t>2019-01-30</t>
+  </si>
+  <si>
+    <t>select+name,ADCVD_Case_Number__c,Final_Team_Meeting_Deadline__c,Est_ITC_Notification_to_DOC_of_Final_Det__c,Investigation_Outcome__c,ITC_Notification_to_DOC_of_Final_Determ__c,Estimated_Order_FR_Published__c,Calculated_Order_FR_Signature__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Final_Announcement_Date__c,Amended_Final_Announcement_Date__c,Next_Announcement_Date__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Next_Office_Deadline__c,Calculated_Preliminary_Signature__c,Prelim_Team_Meeting_Deadline__c,Prelim_Issues_Due_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Extension_of_days__c,Actual_Preliminary_Signature__c,Calculated_Final_Signature__c,Calculated_ITC_Prelim_Determination__c,ADCVD_Case_Type__c,Calculated_Prelim_Extension_Request_File__c,Calculated_Postponement_of_PrelimDeterFR__c,Will_you_Amend_the_Final__c,Actual_Amended_Final_Signature__c,Prelim_Extension_of_days__c,Actual_Final_Signature__c,Calculated_Amended_Final_Signature__c,Amended_Preliminary_Announcement_Date__c,Actual_Amended_Prelim_Determination_Sig__c,Signature_of_Prelim_Postponement_FR__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Amend_the_Preliminary_Determination__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Prelim_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Amend_Prelim_Issues_Due_to_DAS__c,Amend_Prelim_Concurrence_Due_to_DAS__c,Actual_Final_Issues_to_DAS__c,Calc_Amended_Prelim_Determination_Sig__c,Actual_Amend_Prelim_Issues_to_DAS__c+from+investigation__c+where+id='investigationId'</t>
+  </si>
+  <si>
+    <t>select+id,Name,Prelim_Extension__c,Decision_on_How_to_Proceed__c,Memorandum_on_Adequacy_Determination__c,Rebuttal_Comments_Due__c,Adequacy_Determination_Letter_to_ITC__c,Comments_on_Adequacy_Determination_Filed__c,Issue_Liquidation_Revocation_Instruction__c,Inadequate_Domestic_Response_note_to_ITC__c,Update_ACE_Customs_Module__c,Inform_Cluster_Coordinator_if_No_Respons__c,Notify_Cluster_Coordinator_No_Interest__c,Substantive_Response_Due_For_All_Parties__c,Notice_of_Intent_to_Participate__c,Actual_Decision_on_HOP_Issues_to_DAS__c,Actual_Decision_on_HOP_Concurrence_toDAS__c,Decision_on_HOP_Concurrence_Due_to_DAS__c,Decision_on_HOP_Issues_Due_to_DAS__c,Deadline_for_Decision_on_How_to_Proceed__c,Actual_Date_of_Decision_on_HoP__c,Request_Filed__c,Initiation_Issues_Due_to_DAS__c,Is_this_review_expedited__c,All_parties_in_agreement_to_the_outcome__c,Initiation_Concurrence_Due_to_DAS__c,Initiation_Extension_of_days__c,Calculated_Initiation_Signature__c,Application_Accepted__c,Actual_Initiation_Issues_to_DAS__c,Actual_Initiation_Concurrence_to_DAS__c,Prelim_Concurrence_Due_to_DAS__c,Final_Date_of_Anniversary_Month__c,Prelim_Issues_Due_to_DAS__c,Prelim_Team_Meeting_Deadline__c,Calculated_Preliminary_Signature__c,Actual_Preliminary_Signature__c,Final_Extension_of_days__c,Actual_Final_Signature__c,Actual_Amended_Final_Signature__c,Will_you_Amend_the_Final__c,Calculated_Amended_Final_Signature__c,Segment_Outcome__c,Actual_Prelim_Issues_to_DAS__c,Actual_Prelim_Concurrence_to_DAS__c,Actual_Final_Issues_to_DAS__c,Actual_Final_Concurrence_to_DAS__c,Amend_Final_Issues_Due_to_DAS__c,Amend_Final_Concurrence_Due_to_DAS__c,Actual_Amend_Final_Issues_to_DAS__c,Actual_Amend_Final_Concurrence_to_DAS__c,Next_Announcement_Date__c,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Announcement_Date__c,Calculated_Final_Signature__c,Final_Concurrence_Due_to_DAS__c,Final_Issues_Due_to_DAS__c,Final_Team_Meeting_Deadline__c,Preliminary_Announcement_Date__c+from+segment__c+where+id='segmentId'</t>
+  </si>
+  <si>
+    <t>Published_Date__c</t>
+  </si>
+  <si>
+    <t>2019-03-30</t>
+  </si>
+  <si>
+    <t>select+id,name,Next_Office_Deadline__c,Next_Due_to_DAS_Deadline__c,Next_Major_Deadline__c,Final_Team_Meeting_Deadline__c,Final_Issues_Due_to_DAS__c,Final_Concurrence_Due_to_DAS__c,Calculated_Final_Signature__c,Draft_Remand_Concurrence_Due_to_DAS__c,Draft_Remand_Issues_Due_to_DAS__c,Calculated_Draft_Remand_release_to_party__c,Prelim_Team_Meeting_Deadline__c,Prelim_Concurrence_Due_to_DAS__c,Prelim_Issues_Due_to_DAS__c,Calculated_Preliminary_Signature__c,Expected_Final_Signature_Before_Ext__c,Request_Filed__c,Prelim_Extension_of_days__c,Final_Extension_of_days__c+from+litigation__c+where+id='litigationId'</t>
   </si>
 </sst>
 </file>
@@ -516,12 +543,10 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,25 +857,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -861,16 +886,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -879,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -913,7 +938,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -939,16 +964,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -959,22 +984,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -993,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93142D5-A61C-4810-9B09-B1B38A7BBBFB}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -1006,10 +1031,11 @@
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1020,32 +1046,38 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="F2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1054,7 +1086,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{90D05635-8350-4236-9E00-6F2638D05A18}">
       <formula1>InvType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{B6B3DE11-5574-4A81-AEC9-9CA8D76F0219}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{B6B3DE11-5574-4A81-AEC9-9CA8D76F0219}">
       <formula1>tFalse</formula1>
     </dataValidation>
   </dataValidations>
@@ -1090,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -1101,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1125,18 +1157,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA0E8ED-866B-4194-9F84-7C98270F145A}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.8">
+    <row r="1" spans="1:17" ht="28.8">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -1147,60 +1180,66 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1210,32 +1249,36 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>7</v>
@@ -1245,29 +1288,33 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
@@ -1278,124 +1325,140 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1405,19 +1468,26 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E8" xr:uid="{1588DF4E-2723-45C2-AD66-A865CE7C4630}">
       <formula1>segType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{0901349C-F2BA-4B4C-AD54-C646D35439A9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{0901349C-F2BA-4B4C-AD54-C646D35439A9}">
       <formula1>tFalse</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I4" xr:uid="{4CAC663F-4BD7-4446-AAEE-32416BF557D8}">
@@ -1430,11 +1500,110 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EEECCD-50BB-4F1A-9622-E7D0FB7B0817}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3" xr:uid="{D0DCA2AD-BFA8-4EEC-A3C1-E94F9EB5E104}">
+      <formula1>tFalse</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FF623B-1CEA-4525-BADF-D1EB80677ABF}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1446,13 +1615,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
@@ -1460,13 +1629,13 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="10" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1474,27 +1643,27 @@
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>91</v>
+        <v>107</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1">
-      <c r="A4" s="13" t="s">
-        <v>89</v>
+      <c r="A4" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1502,13 +1671,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1516,13 +1685,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1539,7 +1708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEFFF53-F7F9-426B-B3D1-DD3E2516D286}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1557,19 +1726,19 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" t="b">
         <v>1</v>
@@ -1580,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1600,53 +1769,53 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="F6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="F8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
